--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_018.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_018.xlsx
@@ -31,295 +31,295 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295018AK2.05) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295016AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Abandonment criteria</t>
-  </si>
-  <si>
-    <t>(295001AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Power/flow distribution</t>
-  </si>
-  <si>
-    <t>(295006AA1.07) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Control rod position</t>
-  </si>
-  <si>
-    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295003AK2.02) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) Emergency generators</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295038EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Emergency depressurization</t>
-  </si>
-  <si>
-    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
-  </si>
-  <si>
-    <t>(295004AA1.04) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) DC electrical loads</t>
-  </si>
-  <si>
-    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295037EK2.25) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) Rod worth minimizer</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Personnel evacuation</t>
-  </si>
-  <si>
-    <t>(295021AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Thermal stratification</t>
-  </si>
-  <si>
-    <t>(295005AA1.04) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Main turbine generator and auxiliaries</t>
-  </si>
-  <si>
-    <t>(295025EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295030EK2.01) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) HPCI</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295029EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Containment integrity</t>
-  </si>
-  <si>
-    <t>(500000EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.7 / 45.6) Drywell sprays</t>
-  </si>
-  <si>
-    <t>(295032EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Equipment operability</t>
-  </si>
-  <si>
-    <t>(295009AK2.06) Knowledge of the relationship between the (APE 9) LOW REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295011AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Increased containment cooling</t>
-  </si>
-  <si>
-    <t>(215004A2.02) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) SRMS inoperable condition</t>
-  </si>
-  <si>
-    <t>(400000K4.01) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic start of standby pump</t>
-  </si>
-  <si>
-    <t>(209002A4.02) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Suction valves</t>
-  </si>
-  <si>
-    <t>(217000A3.08) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Automatic flow control</t>
-  </si>
-  <si>
-    <t>(239002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) AC power</t>
-  </si>
-  <si>
-    <t>(262002K2.02) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor generator</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(264000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Fuel consumption rate</t>
-  </si>
-  <si>
-    <t>(215003A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) IRM back panel switches</t>
-  </si>
-  <si>
-    <t>(223002K1.19) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(209001K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Drywell cooling</t>
-  </si>
-  <si>
-    <t>(259002A2.04) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) RFP runout condition</t>
-  </si>
-  <si>
-    <t>(263000K4.04) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Battery charging methods</t>
-  </si>
-  <si>
-    <t>(215005A4.07) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) OPRM back panel switches, and indicating lights</t>
-  </si>
-  <si>
-    <t>(212000A3.10) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) Bypassing SCRAM signals</t>
-  </si>
-  <si>
-    <t>(300000K6.13) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Service air cross-connect valve</t>
-  </si>
-  <si>
-    <t>(211000K2.02) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Squib valves</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (291002K1.05) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Operation of a flow D/P cell-type flow detector</t>
-  </si>
-  <si>
-    <t>(262001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Breaker control power</t>
-  </si>
-  <si>
-    <t>(218000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Primary containment/drywell pressure</t>
-  </si>
-  <si>
-    <t>(261000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Instrument air system</t>
-  </si>
-  <si>
-    <t>(510000K3.05) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) HIGH-PRESSURE COOLANT INJECTION SYSTEM (BWR 2, 3, 4)</t>
-  </si>
-  <si>
-    <t>(215004A2.01) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Degraded power supply</t>
-  </si>
-  <si>
-    <t>(400000K4.05) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Surge tank level control</t>
-  </si>
-  <si>
-    <t>(209002A4.15) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiation reset</t>
-  </si>
-  <si>
-    <t>(217000A3.07) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Trips and isolations</t>
-  </si>
-  <si>
-    <t>(204000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) SLCS</t>
-  </si>
-  <si>
-    <t>(226001K3.01) Knowledge of the effect that a loss or malfunction of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Containment/drywell/suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(272000A2.16) Ability to (a) predict the impacts of the following on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Instrument malfunctions</t>
-  </si>
-  <si>
-    <t>(241000K4.19) Knowledge of (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Main turbine bypass valve control</t>
-  </si>
-  <si>
-    <t>(510001A4.01) Ability to manually operate and/or monitor the (SF8 CWS*) CIRCULATING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Circulating water pumps</t>
-  </si>
-  <si>
-    <t>(290003A3.01) Ability to monitor automatic operation of the (SF9 CRV) CONTROL ROOM VENTILATION including: (CFR: 41.7 / 45.7) Initiation/reconfiguration</t>
-  </si>
-  <si>
-    <t>(202001K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1, SF4 RS) RECIRCULATION SYSTEM: (CFR: 41.7 / 45.7) Feedwater flow</t>
-  </si>
-  <si>
-    <t>(288000K2.01) (SF9 PVS) PLANT VENTILATION SYSTEMS Knowledge of electrical power supplies to the following: (CFR: 41.7) Primary containment supply and exhaust fans</t>
-  </si>
-  <si>
-    <t>(259001) (SF2 FWS) FEEDWATER SYSTEM (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(245000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.5 / 45.3) Generator cooling</t>
-  </si>
-  <si>
-    <t>(239001A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.5 / 45.5) Reactor power</t>
-  </si>
-  <si>
-    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292005K1.12) CONTROL RODS (CFR: 41.1) Describe effects of deep and shallow control rods on axial and radial flux distribution</t>
-  </si>
-  <si>
-    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
-  </si>
-  <si>
-    <t>(292006K1.01) FISSION PRODUCT POISONS (CFR: 41.1) Define fission product poison</t>
-  </si>
-  <si>
-    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
-  </si>
-  <si>
-    <t>(293007K1.02) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe thermal conductivity</t>
-  </si>
-  <si>
-    <t>(293004K1.13) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain vacuum formation in condenser processes</t>
-  </si>
-  <si>
-    <t>(295018AA2.05) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System pressure</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295016AA2.06) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Cooldown rate</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295006AA2.03) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
-  </si>
-  <si>
-    <t>(295010AA2.05) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell air cooler drain flow</t>
-  </si>
-  <si>
-    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(295007AA2.01) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(239002A2.02) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Leaking SRV</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
-  </si>
-  <si>
-    <t>(205000A2.09) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor low water level</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(215003A2.06) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty range switch</t>
-  </si>
-  <si>
-    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(268000A2.05) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal primary containment sump pump run time</t>
-  </si>
-  <si>
-    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(295005AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Extraction steam/moisture separator isolations</t>
+  </si>
+  <si>
+    <t>(295019AK2.19) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(295037EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Standby liquid control system tank level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295016AA1.05) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) DC electrical distribution </t>
+  </si>
+  <si>
+    <t>(295038EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Exceeding limits for gaseous/liquid releases</t>
+  </si>
+  <si>
+    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
+  </si>
+  <si>
+    <t>(295024EK2.17) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Secondary containment/auxiliary building isolation</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295018AA2.04) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System flow</t>
+  </si>
+  <si>
+    <t>(295003AA1.01) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295027EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Reactor water level measurement</t>
+  </si>
+  <si>
+    <t>(295025EK3.08) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reactor/turbine pressure regulating system operation</t>
+  </si>
+  <si>
+    <t>(295004AK2.02) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) Batteries</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AA2.03) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator current limitations</t>
+  </si>
+  <si>
+    <t>(295026EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(295021AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295030EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) NPSH/vortex limits</t>
+  </si>
+  <si>
+    <t>(295023AK2.04) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) RMCS/RCIS</t>
+  </si>
+  <si>
+    <t>(295035EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(295013AA1.03) Ability to operate and/or monitor the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.7 / 45.6) Suppression pool temperature monitoring system</t>
+  </si>
+  <si>
+    <t>(295011AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295014AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295033EK2.06) Knowledge of the relationship between the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS and the following systems or components: (CFR: 41.7 / 45.8) Systems required to suppress a fire</t>
+  </si>
+  <si>
+    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(239002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) Nuclear boiler instrument system (pressure indication)</t>
+  </si>
+  <si>
+    <t>(215003A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) SCRAM and rod block trip setpoints</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(209001K2.03) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
+  </si>
+  <si>
+    <t>(263000A4.01) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Operationally significant breakers and control power fuses</t>
+  </si>
+  <si>
+    <t>(510000A3.02) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Valve alignment</t>
+  </si>
+  <si>
+    <t>(262002K3.05) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) ROD WORTH MINIMIZER SYSTEM (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(211000A2.01) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trip</t>
+  </si>
+  <si>
+    <t>(262001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Paralleling AC sources</t>
+  </si>
+  <si>
+    <t>(223002K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Recirculation system</t>
+  </si>
+  <si>
+    <t>(212000K4.13) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Underfrequency, overvoltage, and undervoltage protection</t>
+  </si>
+  <si>
+    <t>(259002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Instrument air systems</t>
+  </si>
+  <si>
+    <t>(205000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) Temperatures</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (291005K1.07) MOTORS AND GENERATORS (CFR: 41.7) Electrical units: volts, amps, VARs, watts and hertz</t>
+  </si>
+  <si>
+    <t>(203000K2.03) (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
+  </si>
+  <si>
+    <t>(209002A4.01) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) HPCS pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(218000A3.01) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS valves </t>
+  </si>
+  <si>
+    <t>(215005K3.06) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) IRM system</t>
+  </si>
+  <si>
+    <t>(261000A2.15) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High area radiation by refuel bridge</t>
+  </si>
+  <si>
+    <t>(215004K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) SRMS/IRM overlap</t>
+  </si>
+  <si>
+    <t>(400000K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Turbine generator and auxiliary systems</t>
+  </si>
+  <si>
+    <t>(264000K4.04) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Field flashing</t>
+  </si>
+  <si>
+    <t>(239002K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) Discharge line vacuum breaker</t>
+  </si>
+  <si>
+    <t>(215003A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Detector position</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(209001K2.01) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
+  </si>
+  <si>
+    <t>(223001K1.19) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Containment hardened venting</t>
+  </si>
+  <si>
+    <t>(202002K4.06) Knowledge of (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Recirculation pump adequate NPSH</t>
+  </si>
+  <si>
+    <t>(245000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.7 / 45.7) Lube oil system</t>
+  </si>
+  <si>
+    <t>(230000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.5 / 45.5) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (291004K1.03) PUMPS (CFR: 41.3) (CENTRIFUGAL) Consequences of air/steam binding</t>
+  </si>
+  <si>
+    <t>(256000K2.02) (SF2 CDS) CONDENSATE SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
+  </si>
+  <si>
+    <t>(204000A4.10) Ability to manually operate and/or monitor the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Motor-operated valves</t>
+  </si>
+  <si>
+    <t>(241000A3.17) Ability to monitor automatic operation of the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM including: (CFR: 41.7 / 45.7) Turbine runback</t>
+  </si>
+  <si>
+    <t>(239003K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(290003A2.03) Ability to (a) predict the impacts of the following on the (SF9 CRV) CONTROL ROOM VENTILATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(290002K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.5 / 45.3) Plant radiation levels</t>
+  </si>
+  <si>
+    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(292006K1.05) FISSION PRODUCT POISONS (CFR: 41.1) Describe the following processes and state their effect on reactor operations: --Equilibrium xenon</t>
+  </si>
+  <si>
+    <t>(292002K1.09) NEUTRON LIFE CYCLE (CFR: 41.1) Define K-excess (excess reactivity)</t>
+  </si>
+  <si>
+    <t>(292008K1.12) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (INTERMEDIATE RANGE OPERATION) Describe reactor power and period response prior to reaching the POAH</t>
+  </si>
+  <si>
+    <t>(293007K1.06) HEAT TRANSFER (CFR: 41.14) (HEAT EXCHANGERS) Discuss the factors that affect heat transfer rate in</t>
+  </si>
+  <si>
+    <t>(293004K1.04) THERMODYNAMIC PROCESS (CFR: 41.14) (NOZZLES) Describe the functions of nozzles in air ejectors</t>
+  </si>
+  <si>
+    <t>(293008K1.19) THERMAL HYDRAULICS (CFR: 41.14) (CORE INLET SUBCOOLING) Define core inlet subcooling</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295037EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(500000EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen concentration limits for drywell</t>
+  </si>
+  <si>
+    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(510000A2.01) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pump/motor failure</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(211000A2.05) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of SLCS tank heaters</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
+  </si>
+  <si>
+    <t>(226001A2.17) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High containment/drywell temperature</t>
+  </si>
+  <si>
+    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(259001A2.10) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Digital feedwater control malfunctions</t>
   </si>
   <si>
     <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
   </si>
   <si>
-    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+    <t>(G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
   </si>
   <si>
     <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
@@ -328,7 +328,10 @@
     <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>K2</t>
@@ -337,33 +340,30 @@
     <t>G</t>
   </si>
   <si>
-    <t>K3</t>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K5</t>
   </si>
   <si>
     <t>K4</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,67 +385,202 @@
     <t>T</t>
   </si>
   <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
     <t>295018</t>
   </si>
   <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295019</t>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295030</t>
   </si>
   <si>
     <t>295023</t>
   </si>
   <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295029</t>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>295010</t>
   </si>
   <si>
     <t>500000</t>
@@ -454,148 +589,13 @@
     <t>295032</t>
   </si>
   <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
     <t>226001</t>
   </si>
   <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>288000</t>
+    <t>201005</t>
   </si>
   <si>
     <t>259001</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>223001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1514,7 +1514,7 @@
         <v>3.3</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1582,7 +1582,7 @@
         <v>3.1</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1854,7 +1854,7 @@
         <v>4.2</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
